--- a/5조_클래스 다이어그램.xlsx
+++ b/5조_클래스 다이어그램.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F35F9B-80BB-4F45-A273-9C1362FA0B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203F1E94-F815-4221-BB67-CD65D05F2274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1605" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면흐름도" sheetId="1" r:id="rId1"/>
@@ -498,25 +498,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,22 +547,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
+      <xdr:colOff>212480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>175847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>84364</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>5861</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>147641</xdr:rowOff>
+      <xdr:rowOff>277979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6758EB-F86D-5D87-348F-3ADFE0D05BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F205CC7-0F84-20E0-58D0-CEB5E7D737FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -584,8 +584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1129393" y="1074965"/>
-          <a:ext cx="7772400" cy="4991783"/>
+          <a:off x="1179634" y="1208943"/>
+          <a:ext cx="7772400" cy="4937901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -596,23 +596,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>136073</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>62058</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>35169</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>61149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
+        <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2496C295-C9D4-0011-C302-90FBABA56141}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF9834C-6AAA-EFBC-1EA7-53340A964D59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,8 +634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1605644" y="7728857"/>
-          <a:ext cx="6286500" cy="5804272"/>
+          <a:off x="967154" y="7869115"/>
+          <a:ext cx="7772400" cy="5219303"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV33" sqref="AV33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -2491,7 +2491,7 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="29"/>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="41" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="42"/>
@@ -2852,7 +2852,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="47" t="s">
         <v>4</v>
       </c>
       <c r="L25" s="42"/>
@@ -3154,6 +3154,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="K24:AD24"/>
+    <mergeCell ref="AE24:AH24"/>
+    <mergeCell ref="AI24:AO24"/>
+    <mergeCell ref="K25:AD26"/>
+    <mergeCell ref="AE25:AH25"/>
+    <mergeCell ref="AI25:AO25"/>
+    <mergeCell ref="AE26:AH26"/>
+    <mergeCell ref="AI26:AO26"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
@@ -3163,15 +3172,6 @@
     <mergeCell ref="AI2:AO2"/>
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="A24:J26"/>
-    <mergeCell ref="K24:AD24"/>
-    <mergeCell ref="AE24:AH24"/>
-    <mergeCell ref="AI24:AO24"/>
-    <mergeCell ref="K25:AD26"/>
-    <mergeCell ref="AE25:AH25"/>
-    <mergeCell ref="AI25:AO25"/>
-    <mergeCell ref="AE26:AH26"/>
-    <mergeCell ref="AI26:AO26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/5조_클래스 다이어그램.xlsx
+++ b/5조_클래스 다이어그램.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203F1E94-F815-4221-BB67-CD65D05F2274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5EC449-6711-45C8-9814-01B987DF78F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면흐름도" sheetId="1" r:id="rId1"/>
@@ -546,23 +546,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>212480</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>175847</xdr:rowOff>
+      <xdr:rowOff>277091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>5861</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>238991</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>277979</xdr:rowOff>
+      <xdr:rowOff>303280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F205CC7-0F84-20E0-58D0-CEB5E7D737FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD62A62A-9B99-B90C-60CA-4ECC459BB09A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -584,8 +584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1179634" y="1208943"/>
-          <a:ext cx="7772400" cy="4937901"/>
+          <a:off x="952500" y="1298864"/>
+          <a:ext cx="7772400" cy="4961871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,22 +597,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>225136</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>35169</xdr:colOff>
+      <xdr:colOff>238990</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>61149</xdr:rowOff>
+      <xdr:rowOff>109287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
+        <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF9834C-6AAA-EFBC-1EA7-53340A964D59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783E5D43-25D0-D65C-7799-01CDF7E5A944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,8 +634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="967154" y="7869115"/>
-          <a:ext cx="7772400" cy="5219303"/>
+          <a:off x="1194954" y="8070273"/>
+          <a:ext cx="7772400" cy="5270105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -971,7 +971,7 @@
   <dimension ref="A1:AU46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="BB16" sqref="BB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>

--- a/5조_클래스 다이어그램.xlsx
+++ b/5조_클래스 다이어그램.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5EC449-6711-45C8-9814-01B987DF78F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512EACAC-B4DE-4364-A497-BF2F5DB7946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="2070" windowWidth="16710" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면흐름도" sheetId="1" r:id="rId1"/>
@@ -498,25 +498,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,23 +546,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>225136</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>277091</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>238991</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>303280</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>194491</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD62A62A-9B99-B90C-60CA-4ECC459BB09A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FEF25E-2B7D-BB95-CBD8-F6586BE581EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -584,8 +584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="1298864"/>
-          <a:ext cx="7772400" cy="4961871"/>
+          <a:off x="1108363" y="779318"/>
+          <a:ext cx="7772400" cy="6030718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,22 +597,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>225136</xdr:colOff>
+      <xdr:colOff>121228</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>238990</xdr:colOff>
+      <xdr:colOff>135082</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>109287</xdr:rowOff>
+      <xdr:rowOff>103107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
+        <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783E5D43-25D0-D65C-7799-01CDF7E5A944}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FD2FAE-4DF8-0092-C506-A2E3CDF4672A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,8 +634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1194954" y="8070273"/>
-          <a:ext cx="7772400" cy="5270105"/>
+          <a:off x="1091046" y="8018319"/>
+          <a:ext cx="7772400" cy="5315879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -971,7 +971,7 @@
   <dimension ref="A1:AU46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BB16" sqref="BB16"/>
+      <selection activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -2491,7 +2491,7 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="29"/>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="47" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="42"/>
@@ -2852,7 +2852,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="41" t="s">
         <v>4</v>
       </c>
       <c r="L25" s="42"/>
@@ -3154,6 +3154,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AO1"/>
+    <mergeCell ref="K2:AD3"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="A24:J26"/>
     <mergeCell ref="K24:AD24"/>
     <mergeCell ref="AE24:AH24"/>
@@ -3163,15 +3172,6 @@
     <mergeCell ref="AI25:AO25"/>
     <mergeCell ref="AE26:AH26"/>
     <mergeCell ref="AI26:AO26"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="K2:AD3"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
